--- a/outputs/per_model_excel/Qwen_finetuning_summary.xlsx
+++ b/outputs/per_model_excel/Qwen_finetuning_summary.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="主要指标" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BOOLQ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="PIQA" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="HELLASWAG" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="WINOGRANDE" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ARC_EASY" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ARC_CHALLENGE" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="OPENBOOKQA" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="主要指标" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BOOLQ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PIQA" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HELLASWAG" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WINOGRANDE" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ARC_EASY" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ARC_CHALLENGE" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OPENBOOKQA" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,30 +453,45 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>微调前PPL</t>
+          <t>微调前PPL_WikiText2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>微调后PPL</t>
+          <t>微调后PPL_WikiText2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PPL变化(%)</t>
+          <t>PPL变化(%)_WikiText2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>微调前PPL_PTB</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>微调后PPL_PTB</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>PPL变化(%)_PTB</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>微调前平均ACC</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>微调后平均ACC</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ACC变化(%)</t>
         </is>
@@ -501,12 +516,21 @@
         <v>-15.31</v>
       </c>
       <c r="F2" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>17.97</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-13.61</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.5637</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
         <v>0.6037</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>7.09</v>
       </c>
     </row>
@@ -529,12 +553,21 @@
         <v>-12.49</v>
       </c>
       <c r="F3" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="G3" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-9.949999999999999</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.5614</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>0.6063</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>7.99</v>
       </c>
     </row>
@@ -557,12 +590,21 @@
         <v>-14.58</v>
       </c>
       <c r="F4" t="n">
+        <v>18.88</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16.64</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-11.86</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.5283</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>0.5943000000000001</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>12.5</v>
       </c>
     </row>
@@ -585,12 +627,21 @@
         <v>-0</v>
       </c>
       <c r="F5" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.7028</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>0.7022</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -613,12 +664,21 @@
         <v>-21.15</v>
       </c>
       <c r="F6" t="n">
+        <v>20.43</v>
+      </c>
+      <c r="G6" t="n">
+        <v>17.32</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-15.21</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.6094000000000001</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
         <v>0.6476</v>
       </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
         <v>6.27</v>
       </c>
     </row>
@@ -641,12 +701,21 @@
         <v>-9.869999999999999</v>
       </c>
       <c r="F7" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-7.05</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.5633</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
         <v>0.6197</v>
       </c>
-      <c r="H7" t="n">
+      <c r="K7" t="n">
         <v>10.01</v>
       </c>
     </row>
@@ -669,12 +738,21 @@
         <v>-99.72</v>
       </c>
       <c r="F8" t="n">
+        <v>5862.19</v>
+      </c>
+      <c r="G8" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-99.36</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.3804</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
         <v>0.5805</v>
       </c>
-      <c r="H8" t="n">
+      <c r="K8" t="n">
         <v>52.61</v>
       </c>
     </row>
@@ -697,12 +775,21 @@
         <v>-80.58</v>
       </c>
       <c r="F9" t="n">
+        <v>119.56</v>
+      </c>
+      <c r="G9" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-84.38</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.5198</v>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
         <v>0.6089</v>
       </c>
-      <c r="H9" t="n">
+      <c r="K9" t="n">
         <v>17.15</v>
       </c>
     </row>
